--- a/realme/May/All Details/31.05.2021/realme Bank Statement May-2021.xlsx
+++ b/realme/May/All Details/31.05.2021/realme Bank Statement May-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="May 2021" sheetId="7" r:id="rId1"/>
@@ -2589,6 +2589,24 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2616,12 +2634,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2632,18 +2644,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3299,8 +3299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3369,14 +3369,14 @@
       <c r="A6" s="19"/>
       <c r="B6" s="24"/>
       <c r="C6" s="23">
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="D6" s="23">
         <v>0</v>
       </c>
       <c r="E6" s="25">
         <f t="shared" ref="E6:E37" si="0">E5+C6-D6</f>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
@@ -3388,7 +3388,7 @@
       <c r="D7" s="23"/>
       <c r="E7" s="25">
         <f t="shared" si="0"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="1"/>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="E8" s="25">
         <f t="shared" si="0"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="1"/>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E9" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>1281</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="1"/>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="E10" s="25">
         <f t="shared" si="0"/>
-        <v>16781</v>
+        <v>6781</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="1"/>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="E11" s="25">
         <f t="shared" si="0"/>
-        <v>12681</v>
+        <v>2681</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="1"/>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="E12" s="25">
         <f t="shared" si="0"/>
-        <v>12681</v>
+        <v>2681</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="27"/>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E13" s="25">
         <f t="shared" si="0"/>
-        <v>44781</v>
+        <v>34781</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="1"/>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="E14" s="25">
         <f t="shared" si="0"/>
-        <v>44781</v>
+        <v>34781</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="1"/>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="E15" s="239">
         <f t="shared" si="0"/>
-        <v>44781</v>
+        <v>34781</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="1"/>
@@ -3555,7 +3555,7 @@
       <c r="D16" s="234"/>
       <c r="E16" s="236">
         <f t="shared" si="0"/>
-        <v>394781</v>
+        <v>384781</v>
       </c>
       <c r="F16" s="242" t="s">
         <v>67</v>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="E17" s="38">
         <f t="shared" si="0"/>
-        <v>394781</v>
+        <v>384781</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="9"/>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="E18" s="25">
         <f>E17+C18-D18</f>
-        <v>394781</v>
+        <v>384781</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="9"/>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="E19" s="25">
         <f t="shared" si="0"/>
-        <v>398081</v>
+        <v>388081</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="27"/>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="E20" s="25">
         <f t="shared" si="0"/>
-        <v>948081</v>
+        <v>938081</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="27"/>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E21" s="25">
         <f>E20+C21-D21</f>
-        <v>948081</v>
+        <v>938081</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="8"/>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="E22" s="25">
         <f t="shared" si="0"/>
-        <v>2029681</v>
+        <v>2019681</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="1"/>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="E23" s="25">
         <f>E22+C23-D23</f>
-        <v>2029681</v>
+        <v>2019681</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="1"/>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="E24" s="25">
         <f t="shared" si="0"/>
-        <v>2217981</v>
+        <v>2207981</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="1"/>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="E25" s="25">
         <f t="shared" si="0"/>
-        <v>2567981</v>
+        <v>2557981</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="1"/>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="E26" s="25">
         <f t="shared" si="0"/>
-        <v>2567981</v>
+        <v>2557981</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="1"/>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="E27" s="25">
         <f t="shared" si="0"/>
-        <v>1869181</v>
+        <v>1859181</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="1"/>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="E28" s="25">
         <f t="shared" si="0"/>
-        <v>2169181</v>
+        <v>2159181</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="1"/>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="E29" s="25">
         <f t="shared" si="0"/>
-        <v>1919981</v>
+        <v>1909981</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="1"/>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="E30" s="25">
         <f t="shared" si="0"/>
-        <v>1919981</v>
+        <v>1909981</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="1"/>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="E31" s="25">
         <f t="shared" si="0"/>
-        <v>1479781</v>
+        <v>1469781</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="1"/>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="E32" s="25">
         <f t="shared" si="0"/>
-        <v>1479781</v>
+        <v>1469781</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="1"/>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="E33" s="25">
         <f t="shared" si="0"/>
-        <v>1342281</v>
+        <v>1332281</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="1"/>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="E34" s="25">
         <f t="shared" si="0"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="1"/>
@@ -3915,7 +3915,7 @@
       <c r="D35" s="23"/>
       <c r="E35" s="25">
         <f t="shared" si="0"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="1"/>
@@ -3928,7 +3928,7 @@
       <c r="D36" s="23"/>
       <c r="E36" s="25">
         <f t="shared" si="0"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="1"/>
@@ -3941,7 +3941,7 @@
       <c r="D37" s="23"/>
       <c r="E37" s="25">
         <f t="shared" si="0"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="1"/>
@@ -3954,7 +3954,7 @@
       <c r="D38" s="23"/>
       <c r="E38" s="25">
         <f t="shared" ref="E38:E69" si="1">E37+C38-D38</f>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="1"/>
@@ -3967,7 +3967,7 @@
       <c r="D39" s="23"/>
       <c r="E39" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="1"/>
@@ -3980,7 +3980,7 @@
       <c r="D40" s="23"/>
       <c r="E40" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="1"/>
@@ -3993,7 +3993,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="1"/>
@@ -4006,7 +4006,7 @@
       <c r="D42" s="23"/>
       <c r="E42" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="1"/>
@@ -4019,7 +4019,7 @@
       <c r="D43" s="23"/>
       <c r="E43" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="1"/>
@@ -4032,7 +4032,7 @@
       <c r="D44" s="23"/>
       <c r="E44" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="1"/>
@@ -4045,7 +4045,7 @@
       <c r="D45" s="23"/>
       <c r="E45" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="1"/>
@@ -4058,7 +4058,7 @@
       <c r="D46" s="23"/>
       <c r="E46" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="1"/>
@@ -4071,7 +4071,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="1"/>
@@ -4084,7 +4084,7 @@
       <c r="D48" s="23"/>
       <c r="E48" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="1"/>
@@ -4096,7 +4096,7 @@
       <c r="D49" s="23"/>
       <c r="E49" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="1"/>
@@ -4108,7 +4108,7 @@
       <c r="D50" s="23"/>
       <c r="E50" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="1"/>
@@ -4120,7 +4120,7 @@
       <c r="D51" s="23"/>
       <c r="E51" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="1"/>
@@ -4132,7 +4132,7 @@
       <c r="D52" s="23"/>
       <c r="E52" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="1"/>
@@ -4144,7 +4144,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="1"/>
@@ -4156,7 +4156,7 @@
       <c r="D54" s="23"/>
       <c r="E54" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="1"/>
@@ -4168,7 +4168,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="1"/>
@@ -4179,7 +4179,7 @@
       <c r="D56" s="23"/>
       <c r="E56" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="1"/>
@@ -4190,7 +4190,7 @@
       <c r="D57" s="23"/>
       <c r="E57" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="1"/>
@@ -4201,7 +4201,7 @@
       <c r="D58" s="23"/>
       <c r="E58" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="1"/>
@@ -4212,7 +4212,7 @@
       <c r="D59" s="23"/>
       <c r="E59" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="1"/>
@@ -4223,7 +4223,7 @@
       <c r="D60" s="23"/>
       <c r="E60" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="1"/>
@@ -4234,7 +4234,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="1"/>
@@ -4245,7 +4245,7 @@
       <c r="D62" s="23"/>
       <c r="E62" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="1"/>
@@ -4256,7 +4256,7 @@
       <c r="D63" s="23"/>
       <c r="E63" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="1"/>
@@ -4267,7 +4267,7 @@
       <c r="D64" s="23"/>
       <c r="E64" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="1"/>
@@ -4278,7 +4278,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="1"/>
@@ -4289,7 +4289,7 @@
       <c r="D66" s="23"/>
       <c r="E66" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="1"/>
@@ -4300,7 +4300,7 @@
       <c r="D67" s="23"/>
       <c r="E67" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="1"/>
@@ -4311,7 +4311,7 @@
       <c r="D68" s="23"/>
       <c r="E68" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="1"/>
@@ -4322,7 +4322,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="25">
         <f t="shared" si="1"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="1"/>
@@ -4333,7 +4333,7 @@
       <c r="D70" s="23"/>
       <c r="E70" s="25">
         <f t="shared" ref="E70:E82" si="2">E69+C70-D70</f>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="1"/>
@@ -4344,7 +4344,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="25">
         <f t="shared" si="2"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="1"/>
@@ -4355,7 +4355,7 @@
       <c r="D72" s="23"/>
       <c r="E72" s="25">
         <f t="shared" si="2"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="1"/>
@@ -4366,7 +4366,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="25">
         <f t="shared" si="2"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="1"/>
@@ -4377,7 +4377,7 @@
       <c r="D74" s="23"/>
       <c r="E74" s="25">
         <f t="shared" si="2"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="1"/>
@@ -4388,7 +4388,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="25">
         <f t="shared" si="2"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F75" s="17"/>
       <c r="G75" s="1"/>
@@ -4399,7 +4399,7 @@
       <c r="D76" s="23"/>
       <c r="E76" s="25">
         <f t="shared" si="2"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="1"/>
@@ -4410,7 +4410,7 @@
       <c r="D77" s="23"/>
       <c r="E77" s="25">
         <f t="shared" si="2"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="1"/>
@@ -4421,7 +4421,7 @@
       <c r="D78" s="23"/>
       <c r="E78" s="25">
         <f t="shared" si="2"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="1"/>
@@ -4432,7 +4432,7 @@
       <c r="D79" s="23"/>
       <c r="E79" s="25">
         <f t="shared" si="2"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="1"/>
@@ -4443,7 +4443,7 @@
       <c r="D80" s="23"/>
       <c r="E80" s="25">
         <f t="shared" si="2"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="1"/>
@@ -4454,7 +4454,7 @@
       <c r="D81" s="23"/>
       <c r="E81" s="25">
         <f t="shared" si="2"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="1"/>
@@ -4465,7 +4465,7 @@
       <c r="D82" s="23"/>
       <c r="E82" s="25">
         <f t="shared" si="2"/>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="1"/>
@@ -4474,7 +4474,7 @@
       <c r="B83" s="29"/>
       <c r="C83" s="25">
         <f>SUM(C5:C72)</f>
-        <v>12903291</v>
+        <v>12893291</v>
       </c>
       <c r="D83" s="25">
         <f>SUM(D5:D77)</f>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="E83" s="39">
         <f>E71</f>
-        <v>1782281</v>
+        <v>1772281</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="1"/>
@@ -4523,73 +4523,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="245"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="251"/>
     </row>
     <row r="2" spans="1:26" s="134" customFormat="1" ht="18">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="252" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="252"/>
     </row>
     <row r="3" spans="1:26" s="135" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="253" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
-      <c r="N3" s="248"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="248"/>
-      <c r="Q3" s="248"/>
-      <c r="R3" s="248"/>
-      <c r="S3" s="249"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="255"/>
       <c r="U3" s="59"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -4598,58 +4598,58 @@
       <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" s="137" customFormat="1">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="258" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="254" t="s">
+      <c r="C4" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="254" t="s">
+      <c r="D4" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="254" t="s">
+      <c r="F4" s="245" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="254" t="s">
+      <c r="G4" s="245" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="254" t="s">
+      <c r="H4" s="245" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="254" t="s">
+      <c r="I4" s="245" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="254" t="s">
+      <c r="J4" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="254" t="s">
+      <c r="K4" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="254" t="s">
+      <c r="L4" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="254" t="s">
+      <c r="M4" s="245" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="254" t="s">
+      <c r="N4" s="245" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="260" t="s">
+      <c r="O4" s="247" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="262" t="s">
+      <c r="P4" s="249" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="258" t="s">
+      <c r="Q4" s="262" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="256" t="s">
+      <c r="R4" s="260" t="s">
         <v>45</v>
       </c>
       <c r="S4" s="136" t="s">
@@ -4662,24 +4662,24 @@
       <c r="Y4" s="139"/>
     </row>
     <row r="5" spans="1:26" s="137" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="251"/>
-      <c r="B5" s="253"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
-      <c r="E5" s="255"/>
-      <c r="F5" s="255"/>
-      <c r="G5" s="255"/>
-      <c r="H5" s="255"/>
-      <c r="I5" s="255"/>
-      <c r="J5" s="255"/>
-      <c r="K5" s="255"/>
-      <c r="L5" s="255"/>
-      <c r="M5" s="255"/>
-      <c r="N5" s="255"/>
-      <c r="O5" s="261"/>
-      <c r="P5" s="263"/>
-      <c r="Q5" s="259"/>
-      <c r="R5" s="257"/>
+      <c r="A5" s="257"/>
+      <c r="B5" s="259"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="246"/>
+      <c r="G5" s="246"/>
+      <c r="H5" s="246"/>
+      <c r="I5" s="246"/>
+      <c r="J5" s="246"/>
+      <c r="K5" s="246"/>
+      <c r="L5" s="246"/>
+      <c r="M5" s="246"/>
+      <c r="N5" s="246"/>
+      <c r="O5" s="248"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="263"/>
+      <c r="R5" s="261"/>
       <c r="S5" s="141" t="s">
         <v>46</v>
       </c>
@@ -7900,11 +7900,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7921,6 +7916,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18058,7 +18058,7 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
